--- a/biology/Botanique/Jardins_secrets_de_Vaulx/Jardins_secrets_de_Vaulx.xlsx
+++ b/biology/Botanique/Jardins_secrets_de_Vaulx/Jardins_secrets_de_Vaulx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Jardins secrets de Vaulx, entre Rumilly et Annecy en Haute-Savoie, sont une mosaïque de petits jardins baroques, aux inspirations variées[1],[2]. Ils ont été créés en 1980 par la famille Moumen.
+Les Jardins secrets de Vaulx, entre Rumilly et Annecy en Haute-Savoie, sont une mosaïque de petits jardins baroques, aux inspirations variées,. Ils ont été créés en 1980 par la famille Moumen.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1980, Nicole et Alain Moumen acquièrent une ferme entourée d’un vaste terrain, à Vaulx en Haute-Savoie et s’ y installent[2]. La ferme est rénovée au fil des années et un jardin est créé en s'inspirant de techniques anciennes traditionnelles[2]. Le jardin est ouvert au public à partir de 1994[2].
-En 1997, le jardin reçoit le « Trophée du Tourisme Vert » et le « Prix Vacances en France »[3]. En 2004, Nicole écrit un livre sur cette histoire familiale : Jardins Secrets, secrets de vie aux éditions Milan[4]. Les jardins reçoivent, le label « Jardin Remarquable » en 2018[2], la Médaille de Bronze du Tourisme en 2022[3] et le Prix de l'Art du Jardin en 2023 [3]. Il fêtera en 2024 ses 30 ans d'ouverture au public[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1980, Nicole et Alain Moumen acquièrent une ferme entourée d’un vaste terrain, à Vaulx en Haute-Savoie et s’ y installent. La ferme est rénovée au fil des années et un jardin est créé en s'inspirant de techniques anciennes traditionnelles. Le jardin est ouvert au public à partir de 1994.
+En 1997, le jardin reçoit le « Trophée du Tourisme Vert » et le « Prix Vacances en France ». En 2004, Nicole écrit un livre sur cette histoire familiale : Jardins Secrets, secrets de vie aux éditions Milan. Les jardins reçoivent, le label « Jardin Remarquable » en 2018, la Médaille de Bronze du Tourisme en 2022 et le Prix de l'Art du Jardin en 2023 . Il fêtera en 2024 ses 30 ans d'ouverture au public.  
 Les Jardins Secrets concentrent une vingtaine d’espaces intérieurs et extérieurs.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardins secrets, secrets de vie, 2004, Éditions Milan
 Jardins secrets, d'amour et d'eau vive, 2008, Éditions Milan
